--- a/miniPCB/ENGDOC/Templates/TESTbase/TESTbase/data/recorddata.xlsx
+++ b/miniPCB/ENGDOC/Templates/TESTbase/TESTbase/data/recorddata.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{592DE098-EEC6-4373-A08C-2D79F3C971CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79521771-B287-4031-ADDA-32DF1FAB3119}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="312" yWindow="108" windowWidth="22692" windowHeight="7992" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="151">
   <si>
     <t>log</t>
   </si>
@@ -27,106 +27,448 @@
     <t>dataKey</t>
   </si>
   <si>
-    <t>Test Name</t>
-  </si>
-  <si>
-    <t>Test Number</t>
-  </si>
-  <si>
-    <t>UUT Part Number</t>
-  </si>
-  <si>
-    <t>Last Test Number</t>
-  </si>
-  <si>
-    <t>Test Type</t>
-  </si>
-  <si>
-    <t>Test Description</t>
-  </si>
-  <si>
-    <t>Test Setup: Power</t>
-  </si>
-  <si>
-    <t>Test Setup: Stimuli</t>
-  </si>
-  <si>
-    <t>Test Setup: Measurement</t>
-  </si>
-  <si>
-    <t>Image 1 Caption</t>
-  </si>
-  <si>
-    <t>Image 2 Caption</t>
-  </si>
-  <si>
-    <t>Signal Pin</t>
-  </si>
-  <si>
-    <t>Instrument</t>
-  </si>
-  <si>
-    <t>Instrument Accuracy</t>
-  </si>
-  <si>
-    <t>Parameter</t>
-  </si>
-  <si>
-    <t>Lower Limit</t>
-  </si>
-  <si>
-    <t>Target Value</t>
-  </si>
-  <si>
-    <t>Upper Limit</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>In Tolernace: Next Step</t>
-  </si>
-  <si>
-    <t>In Tolerance: Adjust</t>
-  </si>
-  <si>
-    <t>In Tolerance: Replace</t>
-  </si>
-  <si>
-    <t>OOT High: Next Step</t>
-  </si>
-  <si>
-    <t>OOT High: Adjust</t>
-  </si>
-  <si>
-    <t>OOT Hight: Replace</t>
-  </si>
-  <si>
-    <t>OOT Low: Next Step</t>
-  </si>
-  <si>
-    <t>OOT Low: Adjust</t>
-  </si>
-  <si>
-    <t>OOT Low: Replace</t>
-  </si>
-  <si>
-    <t>OOT High and Unable to Adjust: Next Step</t>
-  </si>
-  <si>
-    <t>OOT High and Unable to Adjust: Replace</t>
-  </si>
-  <si>
-    <t>OOT Low and Unable to Adjust: Next Step</t>
-  </si>
-  <si>
-    <t>OOT Low and Unable to Adjust: Replace</t>
-  </si>
-  <si>
-    <t>Image 2</t>
-  </si>
-  <si>
-    <t>Image 1</t>
+    <t>LL</t>
+  </si>
+  <si>
+    <t>TV</t>
+  </si>
+  <si>
+    <t>UL</t>
+  </si>
+  <si>
+    <t>UNITS</t>
+  </si>
+  <si>
+    <t>TEST_NAME</t>
+  </si>
+  <si>
+    <t>TEST_NO</t>
+  </si>
+  <si>
+    <t>UUT_PN</t>
+  </si>
+  <si>
+    <t>LAST_TEST_NO</t>
+  </si>
+  <si>
+    <t>POWER</t>
+  </si>
+  <si>
+    <t>STIMULI</t>
+  </si>
+  <si>
+    <t>MEASUREMENT</t>
+  </si>
+  <si>
+    <t>IMAGE1CAPTION</t>
+  </si>
+  <si>
+    <t>IMAGE2CAPTION</t>
+  </si>
+  <si>
+    <t>SIGNALPIN</t>
+  </si>
+  <si>
+    <t>RETURNPIN</t>
+  </si>
+  <si>
+    <t>ITNEXTSTEP</t>
+  </si>
+  <si>
+    <t>ITADJUST</t>
+  </si>
+  <si>
+    <t>ITREPLACE</t>
+  </si>
+  <si>
+    <t>OTHNEXTSTEP</t>
+  </si>
+  <si>
+    <t>OTHADJUST</t>
+  </si>
+  <si>
+    <t>OTHREPLACE</t>
+  </si>
+  <si>
+    <t>OTLNEXTSTEP</t>
+  </si>
+  <si>
+    <t>OTLADJUST</t>
+  </si>
+  <si>
+    <t>OTLREPLACE</t>
+  </si>
+  <si>
+    <t>OTHUNABLENEXTSTEP</t>
+  </si>
+  <si>
+    <t>OTHUNABLEREPLACE</t>
+  </si>
+  <si>
+    <t>OTLUNABLENEXTSTEP</t>
+  </si>
+  <si>
+    <t>OTLUNABLEREPLACE</t>
+  </si>
+  <si>
+    <t>ccStampComputerID</t>
+  </si>
+  <si>
+    <t>ccStampUserID</t>
+  </si>
+  <si>
+    <t>ccStampDatetime</t>
+  </si>
+  <si>
+    <t>TEST_TYPE</t>
+  </si>
+  <si>
+    <t>RD1</t>
+  </si>
+  <si>
+    <t>TYPE1</t>
+  </si>
+  <si>
+    <t>PARAMETER1</t>
+  </si>
+  <si>
+    <t>FM1A</t>
+  </si>
+  <si>
+    <t>TL1A</t>
+  </si>
+  <si>
+    <t>FM1B</t>
+  </si>
+  <si>
+    <t>TL1B</t>
+  </si>
+  <si>
+    <t>RD2</t>
+  </si>
+  <si>
+    <t>TYPE2</t>
+  </si>
+  <si>
+    <t>PARAMETER2</t>
+  </si>
+  <si>
+    <t>FM2A</t>
+  </si>
+  <si>
+    <t>TL2A</t>
+  </si>
+  <si>
+    <t>FM2B</t>
+  </si>
+  <si>
+    <t>TL2B</t>
+  </si>
+  <si>
+    <t>RD3</t>
+  </si>
+  <si>
+    <t>TYPE3</t>
+  </si>
+  <si>
+    <t>PARAMETER3</t>
+  </si>
+  <si>
+    <t>FM3A</t>
+  </si>
+  <si>
+    <t>TL3A</t>
+  </si>
+  <si>
+    <t>FM3B</t>
+  </si>
+  <si>
+    <t>TL3B</t>
+  </si>
+  <si>
+    <t>RD4</t>
+  </si>
+  <si>
+    <t>TYPE4</t>
+  </si>
+  <si>
+    <t>PARAMETER4</t>
+  </si>
+  <si>
+    <t>FM4A</t>
+  </si>
+  <si>
+    <t>TL4A</t>
+  </si>
+  <si>
+    <t>FM4B</t>
+  </si>
+  <si>
+    <t>TL4B</t>
+  </si>
+  <si>
+    <t>RD5</t>
+  </si>
+  <si>
+    <t>TYPE5</t>
+  </si>
+  <si>
+    <t>PARAMETER5</t>
+  </si>
+  <si>
+    <t>FM5A</t>
+  </si>
+  <si>
+    <t>TL5A</t>
+  </si>
+  <si>
+    <t>FM5B</t>
+  </si>
+  <si>
+    <t>TL5B</t>
+  </si>
+  <si>
+    <t>RD6</t>
+  </si>
+  <si>
+    <t>TYPE6</t>
+  </si>
+  <si>
+    <t>PARAMETER6</t>
+  </si>
+  <si>
+    <t>FM6A</t>
+  </si>
+  <si>
+    <t>TL6A</t>
+  </si>
+  <si>
+    <t>FM6B</t>
+  </si>
+  <si>
+    <t>TL6B</t>
+  </si>
+  <si>
+    <t>RD7</t>
+  </si>
+  <si>
+    <t>TYPE7</t>
+  </si>
+  <si>
+    <t>PARAMETER7</t>
+  </si>
+  <si>
+    <t>FM7A</t>
+  </si>
+  <si>
+    <t>TL7A</t>
+  </si>
+  <si>
+    <t>FM7B</t>
+  </si>
+  <si>
+    <t>TL7B</t>
+  </si>
+  <si>
+    <t>RD8</t>
+  </si>
+  <si>
+    <t>TYPE8</t>
+  </si>
+  <si>
+    <t>PARAMETER8</t>
+  </si>
+  <si>
+    <t>FM8A</t>
+  </si>
+  <si>
+    <t>TL8A</t>
+  </si>
+  <si>
+    <t>FM8B</t>
+  </si>
+  <si>
+    <t>TL8B</t>
+  </si>
+  <si>
+    <t>RD9</t>
+  </si>
+  <si>
+    <t>TYPE9</t>
+  </si>
+  <si>
+    <t>PARAMETER9</t>
+  </si>
+  <si>
+    <t>FM9A</t>
+  </si>
+  <si>
+    <t>TL9A</t>
+  </si>
+  <si>
+    <t>FM9B</t>
+  </si>
+  <si>
+    <t>TL9B</t>
+  </si>
+  <si>
+    <t>RD10</t>
+  </si>
+  <si>
+    <t>TYPE10</t>
+  </si>
+  <si>
+    <t>PARAMETER10</t>
+  </si>
+  <si>
+    <t>FM10A</t>
+  </si>
+  <si>
+    <t>TL10A</t>
+  </si>
+  <si>
+    <t>FM10B</t>
+  </si>
+  <si>
+    <t>TL10B</t>
+  </si>
+  <si>
+    <t>RD11</t>
+  </si>
+  <si>
+    <t>TYPE11</t>
+  </si>
+  <si>
+    <t>PARAMETER11</t>
+  </si>
+  <si>
+    <t>FM11A</t>
+  </si>
+  <si>
+    <t>TL11A</t>
+  </si>
+  <si>
+    <t>FM11B</t>
+  </si>
+  <si>
+    <t>TL11B</t>
+  </si>
+  <si>
+    <t>RD12</t>
+  </si>
+  <si>
+    <t>TYPE12</t>
+  </si>
+  <si>
+    <t>PARAMETER12</t>
+  </si>
+  <si>
+    <t>FM12A</t>
+  </si>
+  <si>
+    <t>TL12A</t>
+  </si>
+  <si>
+    <t>FM12B</t>
+  </si>
+  <si>
+    <t>TL12B</t>
+  </si>
+  <si>
+    <t>RD13</t>
+  </si>
+  <si>
+    <t>TYPE13</t>
+  </si>
+  <si>
+    <t>PARAMETER13</t>
+  </si>
+  <si>
+    <t>FM13A</t>
+  </si>
+  <si>
+    <t>TL13A</t>
+  </si>
+  <si>
+    <t>FM13B</t>
+  </si>
+  <si>
+    <t>TL13B</t>
+  </si>
+  <si>
+    <t>RD14</t>
+  </si>
+  <si>
+    <t>TYPE14</t>
+  </si>
+  <si>
+    <t>PARAMETER14</t>
+  </si>
+  <si>
+    <t>FM14A</t>
+  </si>
+  <si>
+    <t>TL14A</t>
+  </si>
+  <si>
+    <t>FM14B</t>
+  </si>
+  <si>
+    <t>TL14B</t>
+  </si>
+  <si>
+    <t>PURPOSE</t>
+  </si>
+  <si>
+    <t>SCOPE</t>
+  </si>
+  <si>
+    <t>IMAGE1</t>
+  </si>
+  <si>
+    <t>IMAGE2</t>
+  </si>
+  <si>
+    <t>IMAGE3</t>
+  </si>
+  <si>
+    <t>IMAGE4</t>
+  </si>
+  <si>
+    <t>IMAGE3CAPTION</t>
+  </si>
+  <si>
+    <t>IMAGE4CAPTION</t>
+  </si>
+  <si>
+    <t>IMAGE5</t>
+  </si>
+  <si>
+    <t>IMAGE6</t>
+  </si>
+  <si>
+    <t>IMAGE5CAPTION</t>
+  </si>
+  <si>
+    <t>IMAGE6CAPTION</t>
+  </si>
+  <si>
+    <t>INSTRUMENT</t>
+  </si>
+  <si>
+    <t>INSTRUMENTSETTINGS</t>
+  </si>
+  <si>
+    <t>INSTRUMENTACCURACYOFFSET</t>
+  </si>
+  <si>
+    <t>INSTRUMENTACCURACYTOLERANCE</t>
+  </si>
+  <si>
+    <t>CRITERIAPARAMETER</t>
+  </si>
+  <si>
+    <t>Datetime Created</t>
   </si>
 </sst>
 </file>
@@ -505,7 +847,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AK1"/>
+  <dimension ref="A1:EU1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
@@ -530,21 +872,21 @@
     <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:151" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="D1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>6</v>
+        <v>32</v>
+      </c>
+      <c r="E1" t="s">
+        <v>33</v>
       </c>
       <c r="F1" t="s">
         <v>7</v>
@@ -552,99 +894,441 @@
       <c r="G1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>9</v>
       </c>
       <c r="I1" t="s">
         <v>10</v>
       </c>
       <c r="J1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>41</v>
+      </c>
+      <c r="R1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S1" t="s">
+        <v>43</v>
+      </c>
+      <c r="T1" t="s">
+        <v>44</v>
+      </c>
+      <c r="U1" t="s">
+        <v>45</v>
+      </c>
+      <c r="V1" t="s">
+        <v>46</v>
+      </c>
+      <c r="W1" t="s">
+        <v>47</v>
+      </c>
+      <c r="X1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>77</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>79</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>80</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>81</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>82</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>83</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>84</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>85</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>87</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>88</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>89</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>90</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>91</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>93</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>94</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>96</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>98</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>100</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>101</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>102</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>103</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>105</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>106</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>107</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>108</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>109</v>
+      </c>
+      <c r="CH1" t="s">
+        <v>110</v>
+      </c>
+      <c r="CI1" t="s">
+        <v>111</v>
+      </c>
+      <c r="CJ1" t="s">
+        <v>112</v>
+      </c>
+      <c r="CK1" t="s">
+        <v>113</v>
+      </c>
+      <c r="CL1" t="s">
+        <v>114</v>
+      </c>
+      <c r="CM1" t="s">
+        <v>115</v>
+      </c>
+      <c r="CN1" t="s">
+        <v>116</v>
+      </c>
+      <c r="CO1" t="s">
+        <v>117</v>
+      </c>
+      <c r="CP1" t="s">
+        <v>118</v>
+      </c>
+      <c r="CQ1" t="s">
+        <v>119</v>
+      </c>
+      <c r="CR1" t="s">
+        <v>120</v>
+      </c>
+      <c r="CS1" t="s">
+        <v>121</v>
+      </c>
+      <c r="CT1" t="s">
+        <v>122</v>
+      </c>
+      <c r="CU1" t="s">
+        <v>123</v>
+      </c>
+      <c r="CV1" t="s">
+        <v>124</v>
+      </c>
+      <c r="CW1" t="s">
+        <v>125</v>
+      </c>
+      <c r="CX1" t="s">
+        <v>126</v>
+      </c>
+      <c r="CY1" t="s">
+        <v>127</v>
+      </c>
+      <c r="CZ1" t="s">
+        <v>128</v>
+      </c>
+      <c r="DA1" t="s">
+        <v>129</v>
+      </c>
+      <c r="DB1" t="s">
+        <v>130</v>
+      </c>
+      <c r="DC1" t="s">
+        <v>131</v>
+      </c>
+      <c r="DD1" t="s">
+        <v>132</v>
+      </c>
+      <c r="DE1" t="s">
+        <v>133</v>
+      </c>
+      <c r="DF1" t="s">
+        <v>134</v>
+      </c>
+      <c r="DG1" t="s">
+        <v>135</v>
+      </c>
+      <c r="DH1" t="s">
+        <v>136</v>
+      </c>
+      <c r="DI1" t="s">
+        <v>14</v>
+      </c>
+      <c r="DJ1" t="s">
+        <v>15</v>
+      </c>
+      <c r="DK1" t="s">
+        <v>137</v>
+      </c>
+      <c r="DL1" t="s">
+        <v>138</v>
+      </c>
+      <c r="DM1" t="s">
+        <v>139</v>
+      </c>
+      <c r="DN1" t="s">
+        <v>140</v>
+      </c>
+      <c r="DO1" t="s">
         <v>11</v>
       </c>
-      <c r="K1" t="s">
-        <v>36</v>
-      </c>
-      <c r="L1" t="s">
-        <v>35</v>
-      </c>
-      <c r="M1" t="s">
+      <c r="DP1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="DQ1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>14</v>
-      </c>
-      <c r="R1" t="s">
+      <c r="DR1" t="s">
+        <v>141</v>
+      </c>
+      <c r="DS1" t="s">
+        <v>142</v>
+      </c>
+      <c r="DT1" t="s">
+        <v>143</v>
+      </c>
+      <c r="DU1" t="s">
+        <v>144</v>
+      </c>
+      <c r="DV1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" t="s">
+      <c r="DW1" t="s">
+        <v>145</v>
+      </c>
+      <c r="DX1" t="s">
         <v>17</v>
       </c>
-      <c r="T1" t="s">
+      <c r="DY1" t="s">
+        <v>13</v>
+      </c>
+      <c r="DZ1" t="s">
+        <v>146</v>
+      </c>
+      <c r="EA1" t="s">
+        <v>147</v>
+      </c>
+      <c r="EB1" t="s">
+        <v>148</v>
+      </c>
+      <c r="EC1" t="s">
+        <v>149</v>
+      </c>
+      <c r="ED1" t="s">
+        <v>3</v>
+      </c>
+      <c r="EE1" t="s">
+        <v>4</v>
+      </c>
+      <c r="EF1" t="s">
+        <v>5</v>
+      </c>
+      <c r="EG1" t="s">
+        <v>6</v>
+      </c>
+      <c r="EH1" t="s">
         <v>18</v>
       </c>
-      <c r="U1" t="s">
+      <c r="EI1" t="s">
         <v>19</v>
       </c>
-      <c r="V1" t="s">
+      <c r="EJ1" t="s">
         <v>20</v>
       </c>
-      <c r="W1" t="s">
+      <c r="EK1" t="s">
         <v>21</v>
       </c>
-      <c r="X1" t="s">
+      <c r="EL1" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="EM1" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="EN1" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="EO1" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="EP1" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="EQ1" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="ER1" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="ES1" t="s">
         <v>29</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="ET1" t="s">
         <v>30</v>
       </c>
-      <c r="AG1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>2</v>
+      <c r="EU1" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="ClaWZeDDvvwYUn/3FQ3QfM4fczmxh9Rpo3j2gzG6Of1a1l5UBJnmLL9JXEJeyPGEmRAvornN2V1VgdgzVrKg+w==" saltValue="Qh93wF0AYMfwTFr1ucCvlQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="JS9HIRwWX17Ph5prI3Z661H9iwh1zBXZkKBbbx8Fhyqaebxb1ZcoPqoOt8Flekr22J5TAwZfuhH8q9UtCFykpg==" saltValue="LIFW7CKCxd1gTTqeUj2nTA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
